--- a/playlist_per_work/stey002geve01.xlsx
+++ b/playlist_per_work/stey002geve01.xlsx
@@ -483,19 +483,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#urbanus</t>
+          <t>#merkuur,</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Urbanus</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Merkuur,</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -509,19 +505,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#merkuur,</t>
+          <t>#urbanus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Merkuur,</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Urbanus</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -535,19 +527,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#klara</t>
+          <t>#merkuur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Klara</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Merkuur</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -561,19 +549,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#isabella</t>
+          <t>#klara</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Isabella</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Klara</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -587,7 +571,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#isabella</t>
+          <t>#isabella,</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,12 +593,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#merkuur,</t>
+          <t>#isabella</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Merkuur</t>
+          <t>Isabella</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>

--- a/playlist_per_work/stey002geve01.xlsx
+++ b/playlist_per_work/stey002geve01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,30 +446,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>new_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>speaker_variant</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>is_prefered</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>is_new</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>is_error</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>gender (Male/Female/Unknown/Other)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>comments</t>
         </is>
@@ -483,19 +488,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#merkuur,</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Merkuur,</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>#isabella</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Isabella</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -505,19 +511,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#urbanus</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Urbanus</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>#isabella,</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Isabella,</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -527,19 +534,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#merkuur</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Merkuur</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>#klara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Klara</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -549,19 +557,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#klara</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Klara</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>#merkuur</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Merkuur</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -571,19 +580,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#isabella,</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Isabella,</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>#urbanus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Urbanus</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -593,19 +603,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#isabella</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Isabella</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>#merkuur,</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Merkuur,</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
